--- a/Modelos em Python/14 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/14 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>sMAPE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>RRMSE</t>
         </is>
       </c>
     </row>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1052192768618321</v>
+        <v>5.015838690075254</v>
       </c>
       <c r="C2" t="n">
         <v>0.3341243549560681</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4453905517669736</v>
+        <v>0.1273987108205011</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1256815249096062</v>
+        <v>6.081198233242413</v>
       </c>
       <c r="C3" t="n">
         <v>0.3992770808552593</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5478812351524983</v>
+        <v>0.1567149612048592</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1059119179221977</v>
+        <v>5.047802700773985</v>
       </c>
       <c r="C4" t="n">
         <v>0.3361544051933236</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4470993192841899</v>
+        <v>0.1278874836018761</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1098430561336616</v>
+        <v>5.248485014829251</v>
       </c>
       <c r="C5" t="n">
         <v>0.350245004141565</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4631218217634691</v>
+        <v>0.1324705313380266</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1114374060905282</v>
+        <v>5.282493859315767</v>
       </c>
       <c r="C6" t="n">
         <v>0.3532000597146143</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4773137840483781</v>
+        <v>0.1365299746556669</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1138752366325162</v>
+        <v>5.484602653769949</v>
       </c>
       <c r="C7" t="n">
         <v>0.3664997500910166</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4890759992851194</v>
+        <v>0.1398944175061253</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.125999901671677</v>
+        <v>6.095117526912456</v>
       </c>
       <c r="C8" t="n">
         <v>0.4005490489061334</v>
       </c>
       <c r="D8" t="n">
-        <v>0.547379432452096</v>
+        <v>0.1565714264646993</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1261265731332382</v>
+        <v>6.100335610797923</v>
       </c>
       <c r="C9" t="n">
         <v>0.4011500779754649</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5467161495580736</v>
+        <v>0.1563817022209485</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.606206167770749</v>
+        <v>56.29507256542114</v>
       </c>
       <c r="C10" t="n">
         <v>11.393788729185</v>
       </c>
       <c r="D10" t="n">
-        <v>11.39392172527815</v>
+        <v>2.57298719623775</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2214806632114176</v>
+        <v>9.478616755298805</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6957691500849329</v>
+        <v>0.7014106554809932</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8124954914147738</v>
+        <v>0.2337112197764728</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2694226706827509</v>
+        <v>11.28414512245731</v>
       </c>
       <c r="C12" t="n">
         <v>0.8585623833969089</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9621555305792376</v>
+        <v>0.2752132341342122</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.214666269397054</v>
+        <v>8.206618027061662</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6727469766125622</v>
+        <v>0.5990787654435735</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7918616137266713</v>
+        <v>0.1872760337803207</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/14 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/14 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.015838690075254</v>
+        <v>5.015838690071549</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3341243549560681</v>
+        <v>0.3341243549558959</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1273987108205011</v>
+        <v>0.1273987108204915</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.081198233242413</v>
+        <v>6.081198233239853</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3992770808552593</v>
+        <v>0.3992770808551397</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1567149612048592</v>
+        <v>0.1567149612048436</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.047802700773985</v>
+        <v>5.047802700869124</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3361544051933236</v>
+        <v>0.3361544051991939</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1278874836018761</v>
+        <v>0.1278874836043228</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.248485014829251</v>
+        <v>5.170836075294752</v>
       </c>
       <c r="C5" t="n">
-        <v>0.350245004141565</v>
+        <v>0.3449249542446644</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1324705313380266</v>
+        <v>0.1306729066270354</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.282493859315767</v>
+        <v>5.272516613872243</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3532000597146143</v>
+        <v>0.3524876739280969</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1365299746556669</v>
+        <v>0.136384639808337</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.484602653769949</v>
+        <v>5.514022427201726</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3664997500910166</v>
+        <v>0.3684789124302719</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1398944175061253</v>
+        <v>0.1406357364924895</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.095117526912456</v>
+        <v>6.094155561802221</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4005490489061334</v>
+        <v>0.4004905314595623</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1565714264646993</v>
+        <v>0.1565459529637939</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.100335610797923</v>
+        <v>6.099402467902118</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4011500779754649</v>
+        <v>0.4010977619018336</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1563817022209485</v>
+        <v>0.1563358517146634</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56.29507256542114</v>
+        <v>4.97966703448636</v>
       </c>
       <c r="C10" t="n">
-        <v>11.393788729185</v>
+        <v>0.4269645194056881</v>
       </c>
       <c r="D10" t="n">
-        <v>2.57298719623775</v>
+        <v>0.1146191915947487</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.478616755298805</v>
+        <v>9.485640916909716</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7014106554809932</v>
+        <v>0.7020085669238314</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2337112197764728</v>
+        <v>0.2338822125235843</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.28414512245731</v>
+        <v>9.742267847577308</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8585623833969089</v>
+        <v>0.7238813561540711</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2752132341342122</v>
+        <v>0.2389314291722802</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.206618027061662</v>
+        <v>9.169792068952273</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5990787654435735</v>
+        <v>0.6812602140529413</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1872760337803207</v>
+        <v>0.2060361840739774</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/14 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/14 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.485640916909716</v>
+        <v>9.495704104259165</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7020085669238314</v>
+        <v>0.7028518797430563</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2338822125235843</v>
+        <v>0.2339584251275037</v>
       </c>
     </row>
     <row r="12">
